--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -1,40 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camposolsa-my.sharepoint.com/personal/jalarcon_camposol_com_pe/Documents/Programas/R/guia rapida de r/Datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_40C9943C4037A8147FC28546560961D27B3CAE1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92008BF0-446F-4052-90CF-E5FCF3342310}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="datos1" sheetId="1" r:id="rId1"/>
+    <sheet name="datos2" sheetId="2" r:id="rId2"/>
+    <sheet name="datos3" sheetId="3" r:id="rId3"/>
+    <sheet name="datos4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="5">
   <si>
-    <t xml:space="preserve">edad</t>
+    <t>edad</t>
   </si>
   <si>
-    <t xml:space="preserve">altura</t>
+    <t>altura</t>
   </si>
   <si>
-    <t xml:space="preserve">sexo</t>
+    <t>sexo</t>
   </si>
   <si>
-    <t xml:space="preserve">hombre</t>
+    <t>hombre</t>
   </si>
   <si>
-    <t xml:space="preserve">mujer</t>
+    <t>mujer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -70,6 +80,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,14 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,1101 +390,1101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>17.1976217672389</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>155.895934363007</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>18.8491125525836</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>18.849112552583598</v>
+      </c>
+      <c r="B3">
         <v>165.568837091565</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>27.7935415707456</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>160.533081215376</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20.3525419571229</v>
-      </c>
-      <c r="B5" t="n">
-        <v>159.524574006023</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>20.352541957122899</v>
+      </c>
+      <c r="B5">
+        <v>159.52457400602299</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>20.6464386758047</v>
-      </c>
-      <c r="B6" t="n">
-        <v>153.48381432735</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>20.646438675804699</v>
+      </c>
+      <c r="B6">
+        <v>153.48381432734999</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>28.5753249344164</v>
       </c>
-      <c r="B7" t="n">
-        <v>162.549722751911</v>
+      <c r="B7">
+        <v>162.54972275191099</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>22.304581029946</v>
       </c>
-      <c r="B8" t="n">
-        <v>155.150955305429</v>
+      <c r="B8">
+        <v>155.15095530542899</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>13.6746938269673</v>
       </c>
-      <c r="B9" t="n">
-        <v>146.320580634119</v>
+      <c r="B9">
+        <v>146.32058063411901</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>16.5657357405324</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>159.197734797122</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>17.7716901495002</v>
-      </c>
-      <c r="B11" t="n">
-        <v>172.189966090608</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>17.771690149500198</v>
+      </c>
+      <c r="B11">
+        <v>172.18996609060801</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>26.1204089871973</v>
-      </c>
-      <c r="B12" t="n">
-        <v>157.246530373916</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>26.120408987197301</v>
+      </c>
+      <c r="B12">
+        <v>157.24653037391599</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>21.7990691352868</v>
       </c>
-      <c r="B13" t="n">
-        <v>169.07964322225</v>
+      <c r="B13">
+        <v>169.07964322225001</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>22.0038572529703</v>
-      </c>
-      <c r="B14" t="n">
-        <v>146.821172917108</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>22.003857252970299</v>
+      </c>
+      <c r="B14">
+        <v>146.82117291710799</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20.5534135797256</v>
       </c>
-      <c r="B15" t="n">
-        <v>162.444380344755</v>
+      <c r="B15">
+        <v>162.44438034475499</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>17.2207943262296</v>
-      </c>
-      <c r="B16" t="n">
-        <v>168.194072039435</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17.220794326229601</v>
+      </c>
+      <c r="B16">
+        <v>168.19407203943501</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>28.9345656840154</v>
       </c>
-      <c r="B17" t="n">
-        <v>166.011533621667</v>
+      <c r="B17">
+        <v>166.01153362166701</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>22.4892523911462</v>
-      </c>
-      <c r="B18" t="n">
-        <v>164.056761941489</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>22.489252391146199</v>
+      </c>
+      <c r="B18">
+        <v>164.05676194148899</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>10.1669142168518</v>
-      </c>
-      <c r="B19" t="n">
-        <v>156.592939916946</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>10.166914216851801</v>
+      </c>
+      <c r="B19">
+        <v>156.59293991694599</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>23.5067795078184</v>
-      </c>
-      <c r="B20" t="n">
-        <v>154.502956539664</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>23.506779507818401</v>
+      </c>
+      <c r="B20">
+        <v>154.50295653966401</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>17.6360429613603</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>152.758712093951</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>14.6608814700658</v>
-      </c>
-      <c r="B22" t="n">
-        <v>164.176465971001</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>14.660881470065799</v>
+      </c>
+      <c r="B22">
+        <v>164.17646597100099</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>18.9101254267085</v>
       </c>
-      <c r="B23" t="n">
-        <v>153.525253858152</v>
+      <c r="B23">
+        <v>153.52525385815201</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>14.8699777584638</v>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>14.869977758463801</v>
+      </c>
+      <c r="B24">
         <v>158.094425562993</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>16.3555438535443</v>
-      </c>
-      <c r="B25" t="n">
-        <v>160.439078078018</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>16.355543853544301</v>
+      </c>
+      <c r="B25">
+        <v>160.43907807801801</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>16.8748036607537</v>
-      </c>
-      <c r="B26" t="n">
-        <v>181.438620052322</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>16.874803660753699</v>
+      </c>
+      <c r="B26">
+        <v>181.43862005232199</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>11.5665334462879</v>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>11.566533446287901</v>
+      </c>
+      <c r="B27">
         <v>156.480500983045</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>24.1889352224726</v>
-      </c>
-      <c r="B28" t="n">
-        <v>165.353865722849</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>24.188935222472601</v>
+      </c>
+      <c r="B28">
+        <v>165.35386572284901</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>20.7668655891826</v>
-      </c>
-      <c r="B29" t="n">
-        <v>163.779608495637</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>20.766865589182601</v>
+      </c>
+      <c r="B29">
+        <v>163.77960849563701</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>14.3093153149403</v>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14.309315314940299</v>
+      </c>
+      <c r="B30">
         <v>153.381433658699</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>26.2690746053496</v>
-      </c>
-      <c r="B31" t="n">
-        <v>162.286919138764</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>26.269074605349601</v>
+      </c>
+      <c r="B31">
+        <v>162.28691913876401</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>22.1323211073841</v>
-      </c>
-      <c r="B32" t="n">
-        <v>177.445508584233</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>22.132321107384101</v>
+      </c>
+      <c r="B32">
+        <v>177.44550858423301</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>18.5246425850386</v>
-      </c>
-      <c r="B33" t="n">
-        <v>167.515040530792</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>18.524642585038599</v>
+      </c>
+      <c r="B33">
+        <v>167.51504053079199</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>24.4756283052251</v>
-      </c>
-      <c r="B34" t="n">
-        <v>163.412329219929</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>24.475628305225101</v>
+      </c>
+      <c r="B34">
+        <v>163.41232921992901</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>24.3906674376652</v>
-      </c>
-      <c r="B35" t="n">
-        <v>158.775031676604</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>24.390667437665201</v>
+      </c>
+      <c r="B35">
+        <v>158.77503167660399</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>24.1079054081874</v>
-      </c>
-      <c r="B36" t="n">
-        <v>142.467527784595</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>24.107905408187399</v>
+      </c>
+      <c r="B36">
+        <v>142.46752778459501</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>23.4432012705005</v>
-      </c>
-      <c r="B37" t="n">
-        <v>174.313372134142</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>23.443201270500499</v>
+      </c>
+      <c r="B37">
+        <v>174.31337213414201</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>22.7695882676879</v>
-      </c>
-      <c r="B38" t="n">
-        <v>148.393599290752</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>22.769588267687901</v>
+      </c>
+      <c r="B38">
+        <v>148.39359929075201</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>19.6904414471164</v>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>19.690441447116399</v>
+      </c>
+      <c r="B39">
         <v>170.399475108773</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>18.4701866813004</v>
-      </c>
-      <c r="B40" t="n">
-        <v>182.091035692175</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>18.470186681300401</v>
+      </c>
+      <c r="B40">
+        <v>182.09103569217501</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>18.0976449949381</v>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>18.097644994938101</v>
+      </c>
+      <c r="B41">
         <v>148.561068390282</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>16.5264651053974</v>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>16.526465105397399</v>
+      </c>
+      <c r="B42">
         <v>170.017843353747</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>18.960413609902</v>
-      </c>
-      <c r="B43" t="n">
-        <v>160.378025105975</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>18.960413609902002</v>
+      </c>
+      <c r="B43">
+        <v>160.37802510597501</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>13.6730182421587</v>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>13.673018242158699</v>
+      </c>
+      <c r="B44">
         <v>147.278558408545</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>30.8447798266926</v>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>30.844779826692601</v>
+      </c>
+      <c r="B45">
         <v>147.853323462182</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>26.039809991525</v>
-      </c>
-      <c r="B46" t="n">
-        <v>146.984638264254</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>26.039809991525001</v>
+      </c>
+      <c r="B46">
+        <v>146.98463826425399</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>14.3844570839833</v>
       </c>
-      <c r="B47" t="n">
-        <v>157.690934778297</v>
+      <c r="B47">
+        <v>157.69093477829699</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>17.9855758235046</v>
       </c>
-      <c r="B48" t="n">
-        <v>148.382444150041</v>
+      <c r="B48">
+        <v>148.38244415004101</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>17.6667232318839</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>169.879167729758</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>23.8998255916816</v>
-      </c>
-      <c r="B50" t="n">
-        <v>184.001089405257</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>23.899825591681601</v>
+      </c>
+      <c r="B50">
+        <v>184.00108940525701</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>19.5831546676409</v>
-      </c>
-      <c r="B51" t="n">
-        <v>150.129695239648</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>19.583154667640901</v>
+      </c>
+      <c r="B51">
+        <v>150.12969523964799</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>21.2665925699738</v>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>21.266592569973799</v>
+      </c>
+      <c r="B52">
         <v>170.877388474752</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>19.8572662232565</v>
-      </c>
-      <c r="B53" t="n">
-        <v>170.690422410009</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>19.857266223256499</v>
+      </c>
+      <c r="B53">
+        <v>170.69042241000901</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>19.7856477135434</v>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>19.785647713543401</v>
+      </c>
+      <c r="B54">
         <v>166.322025789501</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>26.8430114200723</v>
-      </c>
-      <c r="B55" t="n">
-        <v>152.91623391723</v>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>26.843011420072301</v>
+      </c>
+      <c r="B55">
+        <v>152.91623391722999</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>18.8711450717037</v>
-      </c>
-      <c r="B56" t="n">
-        <v>161.805473933693</v>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>18.871145071703701</v>
+      </c>
+      <c r="B56">
+        <v>161.80547393369301</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>27.5823530221477</v>
       </c>
-      <c r="B57" t="n">
-        <v>160.196046648298</v>
+      <c r="B57">
+        <v>160.19604664829799</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>12.2562359788489</v>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>12.256235978848901</v>
+      </c>
+      <c r="B58">
         <v>168.629895332205</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>22.9230687481803</v>
-      </c>
-      <c r="B59" t="n">
-        <v>159.275612438962</v>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>22.923068748180299</v>
+      </c>
+      <c r="B59">
+        <v>159.27561243896201</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>20.6192712192231</v>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>20.619271219223101</v>
+      </c>
+      <c r="B60">
         <v>172.769733866856</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>21.0797078437199</v>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>21.079707843719898</v>
+      </c>
+      <c r="B61">
         <v>159.25419142233</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>21.8981974137994</v>
-      </c>
-      <c r="B62" t="n">
-        <v>173.527114655793</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>21.898197413799402</v>
+      </c>
+      <c r="B62">
+        <v>173.52711465579301</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>17.4883827344535</v>
-      </c>
-      <c r="B63" t="n">
-        <v>152.508229933339</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>17.488382734453499</v>
+      </c>
+      <c r="B63">
+        <v>152.50822993333901</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>18.3339630816529</v>
       </c>
-      <c r="B64" t="n">
-        <v>150.398447552419</v>
+      <c r="B64">
+        <v>150.39844755241899</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>14.9071230844646</v>
-      </c>
-      <c r="B65" t="n">
-        <v>195.410399349424</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>14.907123084464599</v>
+      </c>
+      <c r="B65">
+        <v>195.41039934942401</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>14.6410438676221</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>158.831424118396</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>21.5176432070213</v>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>21.517643207021301</v>
+      </c>
+      <c r="B67">
         <v>165.982275915407</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>22.2410488931471</v>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>22.241048893147099</v>
+      </c>
+      <c r="B68">
         <v>169.365696740338</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>20.2650211336525</v>
       </c>
-      <c r="B69" t="n">
-        <v>158.162193742913</v>
+      <c r="B69">
+        <v>158.16219374291299</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>24.6113373393987</v>
-      </c>
-      <c r="B70" t="n">
-        <v>168.168620443136</v>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>24.611337339398698</v>
+      </c>
+      <c r="B70">
+        <v>168.16862044313601</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>30.2504234281357</v>
-      </c>
-      <c r="B71" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>30.250423428135701</v>
+      </c>
+      <c r="B71">
         <v>166.689645273851</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>17.5448441697173</v>
-      </c>
-      <c r="B72" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>17.544844169717301</v>
+      </c>
+      <c r="B72">
         <v>160.846194923583</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>8.45415562179594</v>
-      </c>
-      <c r="B73" t="n">
-        <v>163.652930335253</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>8.4541556217959393</v>
+      </c>
+      <c r="B73">
+        <v>163.65293033525299</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>25.0286926223113</v>
-      </c>
-      <c r="B74" t="n">
-        <v>162.659327462615</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>25.028692622311301</v>
+      </c>
+      <c r="B74">
+        <v>162.65932746261501</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>16.453996187088</v>
-      </c>
-      <c r="B75" t="n">
-        <v>184.284518990162</v>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>16.453996187087998</v>
+      </c>
+      <c r="B75">
+        <v>184.28451899016201</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>16.5599569176632</v>
       </c>
-      <c r="B76" t="n">
-        <v>155.586639037272</v>
+      <c r="B76">
+        <v>155.58663903727199</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>25.1278568484835</v>
       </c>
-      <c r="B77" t="n">
-        <v>152.040037329253</v>
+      <c r="B77">
+        <v>152.04003732925301</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>18.576134964745</v>
-      </c>
-      <c r="B78" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>18.576134964744998</v>
+      </c>
+      <c r="B78">
         <v>163.377883991711</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>13.8964114387273</v>
       </c>
-      <c r="B79" t="n">
-        <v>166.104807494431</v>
+      <c r="B79">
+        <v>166.10480749443099</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>20.9065173987458</v>
-      </c>
-      <c r="B80" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>20.906517398745802</v>
+      </c>
+      <c r="B80">
         <v>167.365234789102</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>19.3055431878048</v>
-      </c>
-      <c r="B81" t="n">
-        <v>158.416346672889</v>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>19.305543187804801</v>
+      </c>
+      <c r="B81">
+        <v>158.41634667288901</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>20.0288209294994</v>
       </c>
-      <c r="B82" t="n">
-        <v>152.366738660288</v>
+      <c r="B82">
+        <v>152.36673866028801</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>21.9264020056317</v>
-      </c>
-      <c r="B83" t="n">
-        <v>175.631851760895</v>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>21.926402005631701</v>
+      </c>
+      <c r="B83">
+        <v>175.63185176089499</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>18.146699841038</v>
       </c>
-      <c r="B84" t="n">
-        <v>159.503496120464</v>
+      <c r="B84">
+        <v>159.50349612046401</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>23.2218827425942</v>
       </c>
-      <c r="B85" t="n">
-        <v>154.344871373466</v>
+      <c r="B85">
+        <v>154.34487137346599</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>18.8975671909062</v>
-      </c>
-      <c r="B86" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>18.897567190906202</v>
+      </c>
+      <c r="B86">
         <v>160.637204310589</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>21.6589098195785</v>
-      </c>
-      <c r="B87" t="n">
-        <v>161.028241056514</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>21.658909819578501</v>
+      </c>
+      <c r="B87">
+        <v>161.02824105651399</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>25.4841950657467</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>174.099202897136</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>22.175907454169</v>
       </c>
-      <c r="B89" t="n">
-        <v>163.847372921972</v>
+      <c r="B89">
+        <v>163.84737292197201</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>18.3703420723439</v>
-      </c>
-      <c r="B90" t="n">
-        <v>170.540537851845</v>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>18.370342072343899</v>
+      </c>
+      <c r="B90">
+        <v>170.54053785184499</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>25.7440380922555</v>
-      </c>
-      <c r="B91" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>25.744038092255501</v>
+      </c>
+      <c r="B91">
         <v>158.007079828277</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>24.9675192798106</v>
-      </c>
-      <c r="B92" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>24.967519279810599</v>
+      </c>
+      <c r="B92">
         <v>165.144453095816</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>22.7419847975404</v>
       </c>
-      <c r="B93" t="n">
-        <v>159.753140885092</v>
+      <c r="B93">
+        <v>159.75314088509199</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>21.1936586755572</v>
-      </c>
-      <c r="B94" t="n">
-        <v>163.945835281736</v>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>21.193658675557199</v>
+      </c>
+      <c r="B94">
+        <v>163.94583528173601</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>16.8604696198031</v>
-      </c>
-      <c r="B95" t="n">
-        <v>154.046366420225</v>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>16.860469619803101</v>
+      </c>
+      <c r="B95">
+        <v>154.04636642022501</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>26.80326224265</v>
       </c>
-      <c r="B96" t="n">
-        <v>149.89198466672</v>
+      <c r="B96">
+        <v>149.89198466671999</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>16.9987020642644</v>
       </c>
-      <c r="B97" t="n">
-        <v>182.97213384748</v>
+      <c r="B97">
+        <v>182.97213384747999</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>30.9366649650829</v>
-      </c>
-      <c r="B98" t="n">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>30.936664965082901</v>
+      </c>
+      <c r="B98">
         <v>169.007088236724</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>27.6630531309259</v>
-      </c>
-      <c r="B99" t="n">
-        <v>150.487286383751</v>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>27.663053130925899</v>
+      </c>
+      <c r="B99">
+        <v>150.48728638375101</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>18.8214982044976</v>
-      </c>
-      <c r="B100" t="n">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>18.821498204497601</v>
+      </c>
+      <c r="B100">
         <v>156.888340833196</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>14.8678954984661</v>
-      </c>
-      <c r="B101" t="n">
-        <v>151.145199154027</v>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>14.867895498466099</v>
+      </c>
+      <c r="B101">
+        <v>151.14519915402701</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -1471,6 +1492,348 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53547524-C1E9-4026-A6A0-B350081D03A8}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>17.1976217672389</v>
+      </c>
+      <c r="B2">
+        <v>155.895934363007</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>18.849112552583598</v>
+      </c>
+      <c r="B3">
+        <v>165.568837091565</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>27.7935415707456</v>
+      </c>
+      <c r="B4">
+        <v>160.533081215376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>20.352541957122899</v>
+      </c>
+      <c r="B5">
+        <v>159.52457400602299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>20.646438675804699</v>
+      </c>
+      <c r="B6">
+        <v>153.48381432734999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>28.5753249344164</v>
+      </c>
+      <c r="B7">
+        <v>162.54972275191099</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>22.304581029946</v>
+      </c>
+      <c r="B8">
+        <v>155.15095530542899</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>13.6746938269673</v>
+      </c>
+      <c r="B9">
+        <v>146.32058063411901</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>16.5657357405324</v>
+      </c>
+      <c r="B10">
+        <v>159.197734797122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>17.771690149500198</v>
+      </c>
+      <c r="B11">
+        <v>172.18996609060801</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06632CEF-2513-47E7-89E9-EBCB27078765}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>17.1976217672389</v>
+      </c>
+      <c r="B2">
+        <v>155.895934363007</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>18.849112552583598</v>
+      </c>
+      <c r="B3">
+        <v>165.568837091565</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>27.7935415707456</v>
+      </c>
+      <c r="B4">
+        <v>160.533081215376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>20.352541957122899</v>
+      </c>
+      <c r="B5">
+        <v>159.52457400602299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>20.646438675804699</v>
+      </c>
+      <c r="B6">
+        <v>153.48381432734999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BA2CCB-6ECB-4316-AC56-CC0970AFDC83}">
+  <dimension ref="C1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>17.1976217672389</v>
+      </c>
+      <c r="H2">
+        <v>155.895934363007</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>18.849112552583598</v>
+      </c>
+      <c r="H3">
+        <v>165.568837091565</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>27.7935415707456</v>
+      </c>
+      <c r="H4">
+        <v>160.533081215376</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>20.352541957122899</v>
+      </c>
+      <c r="H5">
+        <v>159.52457400602299</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>20.646438675804699</v>
+      </c>
+      <c r="H6">
+        <v>153.48381432734999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>17.1976217672389</v>
+      </c>
+      <c r="D8">
+        <v>155.895934363007</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>18.849112552583598</v>
+      </c>
+      <c r="D9">
+        <v>165.568837091565</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>27.7935415707456</v>
+      </c>
+      <c r="D10">
+        <v>160.533081215376</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>